--- a/src/test/resources/report-template.xlsx
+++ b/src/test/resources/report-template.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>文本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,26 +72,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>所属部门</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${modifiedOn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${所属用户.所属部门}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${所属用户}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${所属用户.所属部门}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属部门</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${modifiedOn}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${owningUser.fullName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${owningDept}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +482,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -508,23 +516,23 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -532,7 +540,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/report-template.xlsx
+++ b/src/test/resources/report-template.xlsx
@@ -64,10 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,10 @@
   </si>
   <si>
     <t>${owningDept}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${multiselect}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +485,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -513,42 +513,42 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
